--- a/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3059,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>5348</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8140</t>
+          <t>6738</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>5001</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11154</t>
+          <t>9190</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12738</t>
+          <t>10272</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9989</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16345</t>
+          <t>12834</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>5762</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9828</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10574</t>
+          <t>10008</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7963</t>
+          <t>7773</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13728</t>
+          <t>12665</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>17642</t>
+          <t>15770</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14331</t>
+          <t>12867</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>21519</t>
+          <t>19046</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38020</t>
+          <t>34910</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33509</t>
+          <t>31092</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42015</t>
+          <t>38732</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55084</t>
+          <t>51518</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50125</t>
+          <t>46772</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>59902</t>
+          <t>56183</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>93104</t>
+          <t>86427</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>86053</t>
+          <t>80539</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>99142</t>
+          <t>92704</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41511</t>
+          <t>38519</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37257</t>
+          <t>34350</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45724</t>
+          <t>42565</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54114</t>
+          <t>49625</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49172</t>
+          <t>45212</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59031</t>
+          <t>54295</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>95625</t>
+          <t>88145</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>88951</t>
+          <t>82214</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>102335</t>
+          <t>93790</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>46,75%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24906</t>
+          <t>26707</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21247</t>
+          <t>22489</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29341</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20550</t>
+          <t>21228</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16934</t>
+          <t>17640</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24803</t>
+          <t>25443</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>45456</t>
+          <t>47935</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>39534</t>
+          <t>42219</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>51608</t>
+          <t>53574</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40133</t>
+          <t>42702</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34370</t>
+          <t>37910</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45506</t>
+          <t>48053</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,27 +1451,27 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37788</t>
+          <t>39139</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>32776</t>
+          <t>34175</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43657</t>
+          <t>44630</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>77921</t>
+          <t>81841</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>70791</t>
+          <t>74227</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>85759</t>
+          <t>90228</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>186336</t>
+          <t>180240</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>176750</t>
+          <t>170920</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>196100</t>
+          <t>189620</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>173965</t>
+          <t>173059</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>164287</t>
+          <t>163812</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>183100</t>
+          <t>181780</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>360302</t>
+          <t>353298</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>346895</t>
+          <t>340844</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>373658</t>
+          <t>366464</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>212131</t>
+          <t>218566</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>203248</t>
+          <t>209034</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>222516</t>
+          <t>228012</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>207047</t>
+          <t>215498</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>197543</t>
+          <t>206033</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>216189</t>
+          <t>224538</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>419178</t>
+          <t>434063</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>405057</t>
+          <t>419682</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>432841</t>
+          <t>447859</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>48,83%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5749</t>
+          <t>6628</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9560</t>
+          <t>11762</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>9018</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12451</t>
+          <t>15196</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>15309</t>
+          <t>18389</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12337</t>
+          <t>14643</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>19371</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13036</t>
+          <t>15528</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10252</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16606</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14995</t>
+          <t>18474</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12083</t>
+          <t>14626</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18052</t>
+          <t>22579</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>28031</t>
+          <t>34002</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>23844</t>
+          <t>29045</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>32770</t>
+          <t>39803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>58001</t>
+          <t>63676</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53088</t>
+          <t>57406</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>63279</t>
+          <t>69270</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,67 +2133,67 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68321</t>
+          <t>77687</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>62030</t>
+          <t>71362</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>74475</t>
+          <t>84911</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
+          <t>29,55%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>35,17%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>141363</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>132188</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>150270</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>31,03%</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>37,26%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>742</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>126323</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>118962</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>135665</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>35,57%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>33,5%</t>
-        </is>
-      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>35,27%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>78469</t>
+          <t>98753</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72741</t>
+          <t>92403</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83863</t>
+          <t>105317</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,02%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>106999</t>
+          <t>133532</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>100971</t>
+          <t>125890</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>113707</t>
+          <t>140543</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>185468</t>
+          <t>232285</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>177634</t>
+          <t>222167</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>194240</t>
+          <t>242006</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>56,8%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35253</t>
+          <t>36869</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30739</t>
+          <t>31752</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42424</t>
+          <t>42233</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38250</t>
+          <t>39728</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>33003</t>
+          <t>34136</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>43748</t>
+          <t>45377</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>73503</t>
+          <t>76597</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>66278</t>
+          <t>69480</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>81617</t>
+          <t>83687</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>60238</t>
+          <t>63991</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53922</t>
+          <t>57067</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>67020</t>
+          <t>71374</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>63356</t>
+          <t>67622</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>57166</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>70763</t>
+          <t>74791</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>123594</t>
+          <t>131613</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>114510</t>
+          <t>122433</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>133993</t>
+          <t>141422</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>282358</t>
+          <t>278825</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>271429</t>
+          <t>266528</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>294211</t>
+          <t>291568</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>297371</t>
+          <t>302263</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>284912</t>
+          <t>289974</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>310176</t>
+          <t>314588</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>579729</t>
+          <t>581089</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>562493</t>
+          <t>563167</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>597076</t>
+          <t>595615</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>38,58%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>332111</t>
+          <t>355838</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>319091</t>
+          <t>343233</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>343084</t>
+          <t>368642</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>368161</t>
+          <t>398655</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>356179</t>
+          <t>386306</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>380490</t>
+          <t>411168</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>700271</t>
+          <t>754492</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>682769</t>
+          <t>736026</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>716241</t>
+          <t>771650</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>49,98%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">

--- a/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>4994</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5348</t>
+          <t>8813</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6738</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5001</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9190</t>
+          <t>10302</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10272</t>
+          <t>10982</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7970</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12834</t>
+          <t>16417</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5762</t>
+          <t>11675</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>7249</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>18335</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10008</t>
+          <t>7939</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7773</t>
+          <t>4892</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12665</t>
+          <t>12055</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>15770</t>
+          <t>19613</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>12867</t>
+          <t>14273</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>19046</t>
+          <t>27149</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34910</t>
+          <t>116956</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31092</t>
+          <t>106834</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38732</t>
+          <t>127291</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51518</t>
+          <t>147935</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46772</t>
+          <t>137456</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>56183</t>
+          <t>158085</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>650</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>86427</t>
+          <t>264890</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>80539</t>
+          <t>250285</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>92704</t>
+          <t>278878</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>60,82%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38519</t>
+          <t>77024</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34350</t>
+          <t>67118</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42565</t>
+          <t>87841</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49625</t>
+          <t>85987</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45212</t>
+          <t>76977</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54295</t>
+          <t>96821</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>414</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>88145</t>
+          <t>163011</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>82214</t>
+          <t>150336</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>93790</t>
+          <t>177218</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>38,65%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>588</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>247849</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>247849</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>247849</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458497</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458497</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458497</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26707</t>
+          <t>15003</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22489</t>
+          <t>9655</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>21819</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21228</t>
+          <t>15544</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17640</t>
+          <t>9976</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25443</t>
+          <t>23476</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>47935</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>42219</t>
+          <t>23534</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>53574</t>
+          <t>40415</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42702</t>
+          <t>26725</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37910</t>
+          <t>19721</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48053</t>
+          <t>36146</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39139</t>
+          <t>28301</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34175</t>
+          <t>20808</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44630</t>
+          <t>38852</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>81841</t>
+          <t>55026</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>74227</t>
+          <t>44259</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>90228</t>
+          <t>68649</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>841</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>180240</t>
+          <t>431417</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>170920</t>
+          <t>410488</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>189620</t>
+          <t>451475</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>51,43%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>721</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>173059</t>
+          <t>393323</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>163812</t>
+          <t>371429</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>181780</t>
+          <t>415385</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>353298</t>
+          <t>824740</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>340844</t>
+          <t>793567</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>366464</t>
+          <t>857818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>54,84%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>622</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>218566</t>
+          <t>325009</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>209034</t>
+          <t>304856</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>228012</t>
+          <t>346129</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>215498</t>
+          <t>328947</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>206033</t>
+          <t>307069</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>224538</t>
+          <t>351320</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,0%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>434063</t>
+          <t>653956</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>419682</t>
+          <t>620814</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>447859</t>
+          <t>683255</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>43,68%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798154</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798154</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798154</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>766115</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>766115</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>766115</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2906</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1564269</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1564269</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1564269</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6628</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11762</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9018</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>15196</t>
+          <t>14194</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>18389</t>
+          <t>14972</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>14643</t>
+          <t>9781</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>21894</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15528</t>
+          <t>16457</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12437</t>
+          <t>10564</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19387</t>
+          <t>25145</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18474</t>
+          <t>20192</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14626</t>
+          <t>13949</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22579</t>
+          <t>29437</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>34002</t>
+          <t>36648</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>29045</t>
+          <t>27313</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>39803</t>
+          <t>47737</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63676</t>
+          <t>191622</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57406</t>
+          <t>175664</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>69270</t>
+          <t>206841</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>337</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>77687</t>
+          <t>198058</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>71362</t>
+          <t>181061</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>84911</t>
+          <t>213921</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>671</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>141363</t>
+          <t>389680</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>132188</t>
+          <t>367424</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>150270</t>
+          <t>413319</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>53,29%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98753</t>
+          <t>155506</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92403</t>
+          <t>139713</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>105317</t>
+          <t>170920</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>133532</t>
+          <t>178787</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>125890</t>
+          <t>161595</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>140543</t>
+          <t>195172</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>567</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>232285</t>
+          <t>334293</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>222167</t>
+          <t>311058</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>242006</t>
+          <t>358002</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>46,16%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,107 +2436,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36869</t>
+          <t>26834</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31752</t>
+          <t>20064</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42233</t>
+          <t>36494</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39728</t>
+          <t>29667</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34136</t>
+          <t>22477</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45377</t>
+          <t>39331</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>76597</t>
+          <t>56502</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>69480</t>
+          <t>46114</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>83687</t>
+          <t>69092</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>63991</t>
+          <t>54857</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>57067</t>
+          <t>43657</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>71374</t>
+          <t>66803</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>67622</t>
+          <t>56431</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>61107</t>
+          <t>45257</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>74791</t>
+          <t>69857</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>201</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>131613</t>
+          <t>111288</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>122433</t>
+          <t>96855</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>141422</t>
+          <t>130423</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>278825</t>
+          <t>739995</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>266528</t>
+          <t>713737</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>291568</t>
+          <t>768772</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>302263</t>
+          <t>739315</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>289974</t>
+          <t>709071</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>314588</t>
+          <t>770332</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>581089</t>
+          <t>1479310</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>563167</t>
+          <t>1438114</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>595615</t>
+          <t>1518711</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>54,27%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>355838</t>
+          <t>557539</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>343233</t>
+          <t>528118</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>368642</t>
+          <t>584105</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>398655</t>
+          <t>593721</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>386306</t>
+          <t>564955</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>411168</t>
+          <t>626567</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>754492</t>
+          <t>1151260</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>736026</t>
+          <t>1112480</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>771650</t>
+          <t>1191094</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>42,56%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379225</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379225</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379225</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2636</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419135</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419135</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419135</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2798359</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2798359</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2798359</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3059,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8813</t>
+          <t>5348</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>6738</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>5001</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10302</t>
+          <t>9190</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10982</t>
+          <t>10272</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7178</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16417</t>
+          <t>12834</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -3357,107 +3357,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11675</t>
+          <t>5762</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7249</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18335</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7939</t>
+          <t>10008</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4892</t>
+          <t>7773</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12055</t>
+          <t>12665</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>19613</t>
+          <t>15770</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14273</t>
+          <t>12867</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>27149</t>
+          <t>19046</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -3470,107 +3470,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>116956</t>
+          <t>34910</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>106834</t>
+          <t>31092</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>127291</t>
+          <t>38732</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>147935</t>
+          <t>51518</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>137456</t>
+          <t>46772</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>158085</t>
+          <t>56183</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>264890</t>
+          <t>86427</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>250285</t>
+          <t>80539</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>278878</t>
+          <t>92704</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -3583,107 +3583,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77024</t>
+          <t>38519</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67118</t>
+          <t>34350</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87841</t>
+          <t>42565</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85987</t>
+          <t>49625</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76977</t>
+          <t>45212</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96821</t>
+          <t>54295</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>569</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>163011</t>
+          <t>88145</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>150336</t>
+          <t>82214</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>177218</t>
+          <t>93790</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>46,75%</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3731,22 +3731,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>247849</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>247849</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>247849</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3766,22 +3766,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>458497</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>458497</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>458497</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3813,107 +3813,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15003</t>
+          <t>26707</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9655</t>
+          <t>22489</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21819</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15544</t>
+          <t>21228</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9976</t>
+          <t>17640</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23476</t>
+          <t>25443</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>274</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>30547</t>
+          <t>47935</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>23534</t>
+          <t>42219</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>40415</t>
+          <t>53574</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -3926,107 +3926,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26725</t>
+          <t>42702</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19721</t>
+          <t>37910</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36146</t>
+          <t>48053</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28301</t>
+          <t>39139</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20808</t>
+          <t>34175</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38852</t>
+          <t>44630</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>460</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55026</t>
+          <t>81841</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>44259</t>
+          <t>74227</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>68649</t>
+          <t>90228</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -4039,107 +4039,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>431417</t>
+          <t>180240</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>410488</t>
+          <t>170920</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>451475</t>
+          <t>189620</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>985</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>393323</t>
+          <t>173059</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>371429</t>
+          <t>163812</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>415385</t>
+          <t>181780</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>54,22%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>824740</t>
+          <t>353298</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>793567</t>
+          <t>340844</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>857818</t>
+          <t>366464</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -4152,107 +4152,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>325009</t>
+          <t>218566</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>304856</t>
+          <t>209034</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>346129</t>
+          <t>228012</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>328947</t>
+          <t>215498</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>307069</t>
+          <t>206033</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>351320</t>
+          <t>224538</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>653956</t>
+          <t>434063</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>620814</t>
+          <t>419682</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>683255</t>
+          <t>447859</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>48,83%</t>
         </is>
       </c>
     </row>
@@ -4265,22 +4265,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>798154</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>798154</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>798154</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4300,22 +4300,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>766115</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>766115</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>766115</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4335,22 +4335,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1564269</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1564269</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1564269</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4382,107 +4382,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>6628</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12490</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>11762</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>9018</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14194</t>
+          <t>15196</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>14972</t>
+          <t>18389</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>9781</t>
+          <t>14643</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -4495,107 +4495,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16457</t>
+          <t>15528</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10564</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25145</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20192</t>
+          <t>18474</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13949</t>
+          <t>14626</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29437</t>
+          <t>22579</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>36648</t>
+          <t>34002</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>27313</t>
+          <t>29045</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>47737</t>
+          <t>39803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -4608,107 +4608,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>191622</t>
+          <t>63676</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>175664</t>
+          <t>57406</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>206841</t>
+          <t>69270</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,73%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>198058</t>
+          <t>77687</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>181061</t>
+          <t>71362</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>213921</t>
+          <t>84911</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>742</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>389680</t>
+          <t>141363</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>367424</t>
+          <t>132188</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>413319</t>
+          <t>150270</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>35,27%</t>
         </is>
       </c>
     </row>
@@ -4721,107 +4721,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>155506</t>
+          <t>98753</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>139713</t>
+          <t>92403</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>170920</t>
+          <t>105317</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>178787</t>
+          <t>133532</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>161595</t>
+          <t>125890</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>195172</t>
+          <t>140543</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>334293</t>
+          <t>232285</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>311058</t>
+          <t>222167</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>358002</t>
+          <t>242006</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>56,8%</t>
         </is>
       </c>
     </row>
@@ -4834,22 +4834,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4869,22 +4869,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4904,22 +4904,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4951,107 +4951,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26834</t>
+          <t>36869</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20064</t>
+          <t>31752</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36494</t>
+          <t>42233</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29667</t>
+          <t>39728</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22477</t>
+          <t>34136</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>39331</t>
+          <t>45377</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>56502</t>
+          <t>76597</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>46114</t>
+          <t>69480</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>69092</t>
+          <t>83687</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -5064,107 +5064,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54857</t>
+          <t>63991</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43657</t>
+          <t>57067</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>66803</t>
+          <t>71374</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>56431</t>
+          <t>67622</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>45257</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>69857</t>
+          <t>74791</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>732</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>111288</t>
+          <t>131613</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>96855</t>
+          <t>122433</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>130423</t>
+          <t>141422</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -5177,107 +5177,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>739995</t>
+          <t>278825</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>713737</t>
+          <t>266528</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>768772</t>
+          <t>291568</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>739315</t>
+          <t>302263</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>709071</t>
+          <t>289974</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>770332</t>
+          <t>314588</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>1479310</t>
+          <t>581089</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1438114</t>
+          <t>563167</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1518711</t>
+          <t>595615</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>38,58%</t>
         </is>
       </c>
     </row>
@@ -5290,107 +5290,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>557539</t>
+          <t>355838</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>528118</t>
+          <t>343233</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>584105</t>
+          <t>368642</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>2167</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>593721</t>
+          <t>398655</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>564955</t>
+          <t>386306</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>626567</t>
+          <t>411168</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2176</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1151260</t>
+          <t>754492</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1112480</t>
+          <t>736026</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1191094</t>
+          <t>771650</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>49,98%</t>
         </is>
       </c>
     </row>
@@ -5403,22 +5403,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1379225</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1379225</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1379225</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5438,22 +5438,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1419135</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1419135</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1419135</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5473,22 +5473,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2798359</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2798359</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2798359</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
